--- a/data/tracks.xlsx
+++ b/data/tracks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\iCloud\graphics_web_maps_qGIS\Web\hudebni-katalog\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2BC31BC4-D37E-40AE-95F8-5174A196F92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{931ECFD5-4995-4F0D-9A5E-7436649944ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="42466" windowHeight="24496" xr2:uid="{411F85DD-DFD8-4DE0-93D1-547F06DB1906}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="filter" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="111">
   <si>
     <t>id</t>
   </si>
@@ -414,10 +415,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -755,14 +761,17 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.73046875" customWidth="1"/>
-    <col min="7" max="7" width="28.9296875" customWidth="1"/>
+    <col min="2" max="3" width="32.53125" customWidth="1"/>
+    <col min="4" max="5" width="9.06640625" style="2"/>
+    <col min="6" max="6" width="22.06640625" customWidth="1"/>
+    <col min="7" max="7" width="48.06640625" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.86328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -776,10 +785,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -808,10 +817,10 @@
       <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>80</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>0.14583333333333334</v>
       </c>
       <c r="F2" t="s">
@@ -840,10 +849,10 @@
       <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>90</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>0.20694444444444443</v>
       </c>
       <c r="F3" t="s">
@@ -872,7 +881,7 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>150</v>
       </c>
       <c r="F4" t="s">
@@ -901,7 +910,7 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>120</v>
       </c>
       <c r="F5" t="s">
@@ -930,10 +939,10 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>90</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>0.23333333333333334</v>
       </c>
       <c r="F6" t="s">
@@ -962,10 +971,10 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>120</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>0.27500000000000002</v>
       </c>
       <c r="F7" t="s">
@@ -994,10 +1003,10 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>120</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>0.31666666666666698</v>
       </c>
       <c r="F8" t="s">
@@ -1026,10 +1035,10 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>130</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>0.358333333333333</v>
       </c>
       <c r="F9" t="s">
@@ -1058,10 +1067,10 @@
       <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>165</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>0.4</v>
       </c>
       <c r="F10" t="s">
@@ -1090,10 +1099,10 @@
       <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>120</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>0.44166666666666698</v>
       </c>
       <c r="F11" t="s">
@@ -1122,10 +1131,10 @@
       <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>120</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>0.483333333333333</v>
       </c>
       <c r="F12" t="s">
@@ -1154,10 +1163,10 @@
       <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>110</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>0.52500000000000002</v>
       </c>
       <c r="F13" t="s">
@@ -1186,10 +1195,10 @@
       <c r="C14" t="s">
         <v>34</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>120</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>0.56666666666666698</v>
       </c>
       <c r="F14" t="s">
@@ -1218,10 +1227,10 @@
       <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>160</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>0.60833333333333295</v>
       </c>
       <c r="F15" t="s">
@@ -1250,10 +1259,10 @@
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>120</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>0.65</v>
       </c>
       <c r="F16" t="s">
@@ -1282,10 +1291,10 @@
       <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>130</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>0.69166666666666698</v>
       </c>
       <c r="F17" t="s">
@@ -1314,10 +1323,10 @@
       <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>120</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>0.73333333333333295</v>
       </c>
       <c r="F18" t="s">
@@ -1346,10 +1355,10 @@
       <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>120</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>0.77500000000000002</v>
       </c>
       <c r="F19" t="s">
@@ -1378,10 +1387,10 @@
       <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>140</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>0.10486111111111111</v>
       </c>
       <c r="F20" t="s">
@@ -1410,10 +1419,10 @@
       <c r="C21" t="s">
         <v>48</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>70</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>0.20555555555555555</v>
       </c>
       <c r="F21" t="s">
@@ -1442,10 +1451,10 @@
       <c r="C22" t="s">
         <v>50</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>50</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>0.19791666666666666</v>
       </c>
       <c r="F22" t="s">
@@ -1471,10 +1480,10 @@
       <c r="C23" t="s">
         <v>53</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>190</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>0.1423611111111111</v>
       </c>
       <c r="F23" t="s">
@@ -1510,7 +1519,7 @@
   </cols>
   <sheetData>
     <row r="17" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1530,7 +1539,7 @@
       </c>
     </row>
     <row r="27" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="1" t="s">
         <v>110</v>
       </c>
     </row>
